--- a/CDM/Dash_eng/join_table/join_table_visit_discharge.xlsx
+++ b/CDM/Dash_eng/join_table/join_table_visit_discharge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsj28\Desktop\CDM-dash\응급실\_data\join_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132ED0C7-98D7-418F-845C-FBCB15A28697}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE88512-8580-4FC6-A566-492774ABE3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1125" windowWidth="21600" windowHeight="12975" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
+    <workbookView xWindow="7035" yWindow="-14655" windowWidth="20100" windowHeight="13140" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,6 +50,10 @@
   </si>
   <si>
     <t>Hospital admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient discharge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -444,15 +444,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45883108</v>
+        <v>4240723</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>4306655</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>763917</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>8715</v>

--- a/CDM/Dash_eng/join_table/join_table_visit_discharge.xlsx
+++ b/CDM/Dash_eng/join_table/join_table_visit_discharge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsj28\Desktop\CDM-dash\응급실\_data\join_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE88512-8580-4FC6-A566-492774ABE3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFE5218-D231-4FDC-AD02-BC84E8FE8C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="-14655" windowWidth="20100" windowHeight="13140" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
+    <workbookView xWindow="1665" yWindow="270" windowWidth="20160" windowHeight="11385" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>discharge_to_source_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,19 +41,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Death</t>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Patient died</t>
+  </si>
+  <si>
+    <t>Patient transfer from hospital to hospital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Patient transfer to another hospital</t>
+    <t>Hospital patient_Ward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hospital admission</t>
+    <t>Hospital patient_Intensive Care</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Patient discharge</t>
+    <t>Hospital patient_Operating room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE9474-9379-41D1-894A-6A9E70007A78}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -444,34 +450,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4240723</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>4306655</v>
+        <v>4216643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>763917</v>
+        <v>44790567</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>8715</v>
+        <v>4148418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4148418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4148418</v>
       </c>
     </row>
   </sheetData>
